--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>982858.6213505901</v>
+        <v>956454.4025782957</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7128448.701475538</v>
+        <v>6654055.582836236</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3476108.83786422</v>
+        <v>2626870.006455272</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10432492.37306825</v>
+        <v>10820131.0520543</v>
       </c>
     </row>
     <row r="11">
@@ -661,22 +661,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>28.71125398700465</v>
+        <v>91.72166227029922</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>88.88965426565002</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>27.37086888118522</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>113.1898897738792</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>46.53270054897273</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1062,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>52.10844059186288</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>284.5615160058696</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>99.72476023394501</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>38.39834678541126</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>155.4526127311943</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>323.9918595228954</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.275240877313</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>92.26024958059011</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.18624318344743</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>133.2658462320107</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>191.828123840699</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8053112726921</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>103.3051669679944</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>193.7981713870603</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>130.5276313714558</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2244489913895</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>323.9918595228954</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.275240877313</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>92.26024958059011</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.18624318344743</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
-        <v>133.2658462320107</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>191.828123840699</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8053112726921</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.2570059982656</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>116.1289097013135</v>
+        <v>76.3492485097301</v>
       </c>
       <c r="I16" t="n">
-        <v>103.3051669679944</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>28.1928345133093</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2061,10 +2061,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.75769145492352</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>71.6703719699175</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>96.81791202347382</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>25.01141625626312</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>18.26879610203984</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>108.8314371278621</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3243,7 +3243,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>30.96411613815186</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>106.5867442799587</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3441,10 +3441,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>224.7562560951389</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>127.3165365479899</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>11.4249060688664</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>166.4648320575207</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>28.20584125154424</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4137,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>54.26003672910175</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>80.76468634461081</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1606.946621408918</v>
+        <v>975.540838419158</v>
       </c>
       <c r="C2" t="n">
-        <v>1237.984104468507</v>
+        <v>975.540838419158</v>
       </c>
       <c r="D2" t="n">
-        <v>879.7184058617563</v>
+        <v>975.540838419158</v>
       </c>
       <c r="E2" t="n">
-        <v>493.9301532635121</v>
+        <v>975.540838419158</v>
       </c>
       <c r="F2" t="n">
-        <v>82.94424847390451</v>
+        <v>564.5549336295505</v>
       </c>
       <c r="G2" t="n">
-        <v>82.94424847390451</v>
+        <v>146.5911255277374</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533142</v>
@@ -4336,46 +4336,46 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>1752.280010459091</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.54646147304</v>
+        <v>1362.14067848328</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4406,7 +4406,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4415,37 +4415,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246.4894537511404</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C4" t="n">
-        <v>246.4894537511404</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D4" t="n">
-        <v>246.4894537511404</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E4" t="n">
-        <v>246.4894537511404</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>246.4894537511404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>246.4894537511404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>246.4894537511404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>246.4894537511404</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X4" t="n">
-        <v>246.4894537511404</v>
+        <v>411.0644718652463</v>
       </c>
       <c r="Y4" t="n">
-        <v>246.4894537511404</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1366.188433646014</v>
+        <v>1315.683675137275</v>
       </c>
       <c r="C5" t="n">
-        <v>997.2259167056025</v>
+        <v>1315.683675137275</v>
       </c>
       <c r="D5" t="n">
-        <v>997.2259167056025</v>
+        <v>1315.683675137275</v>
       </c>
       <c r="E5" t="n">
-        <v>997.2259167056025</v>
+        <v>929.8954225390303</v>
       </c>
       <c r="F5" t="n">
-        <v>586.240011915995</v>
+        <v>518.9095177494228</v>
       </c>
       <c r="G5" t="n">
-        <v>168.2762038141818</v>
+        <v>100.9457096476096</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>100.9457096476096</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
         <v>2544.691559791253</v>
@@ -4606,13 +4606,13 @@
         <v>2092.422847177208</v>
       </c>
       <c r="W5" t="n">
-        <v>1739.654191907094</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X5" t="n">
-        <v>1366.188433646014</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="Y5" t="n">
-        <v>1366.188433646014</v>
+        <v>1702.283515201396</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,25 +4646,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.806220357135</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4691,7 +4691,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>580.2158906240414</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>433.3259431261311</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>264.3261428644635</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>106.5777702969936</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036446</v>
@@ -4734,7 +4734,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
         <v>529.6040388502502</v>
@@ -4743,34 +4743,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064346</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064346</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1865.381229508782</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="C8" t="n">
-        <v>1496.41871256837</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D8" t="n">
-        <v>1138.15301396162</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E8" t="n">
-        <v>752.3647613633757</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F8" t="n">
-        <v>341.3788565737681</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548716</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="Y8" t="n">
-        <v>2251.981069572904</v>
+        <v>1208.982837814967</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4895,19 +4895,19 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>138.3857151273829</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>138.3857151273829</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>138.3857151273829</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>138.3857151273829</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>138.3857151273829</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>138.3857151273829</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>138.3857151273829</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4986,28 +4986,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>138.3857151273829</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="U10" t="n">
-        <v>138.3857151273829</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V10" t="n">
-        <v>138.3857151273829</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W10" t="n">
-        <v>138.3857151273829</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>138.3857151273829</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>138.3857151273829</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1546.944160717209</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>1177.981643776797</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1177.981643776797</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>792.1933911785532</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>381.2074863889456</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>199.5143021373487</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>468.4264940665502</v>
+        <v>685.1208104866384</v>
       </c>
       <c r="L11" t="n">
-        <v>838.9376088552594</v>
+        <v>1549.639626139993</v>
       </c>
       <c r="M11" t="n">
-        <v>1282.872051350724</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N11" t="n">
-        <v>1738.603625623768</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O11" t="n">
-        <v>2155.602766936376</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P11" t="n">
-        <v>2477.000885571628</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q11" t="n">
-        <v>2670.18474111696</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018222</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>2323.683332757143</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>1933.544000781331</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3062050962127</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8531758150857</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9187661538344</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E12" t="n">
-        <v>448.681311148379</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>302.146753175264</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>165.5050957234327</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
-        <v>72.31292442990731</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>246.6565409677914</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>440.8349669871899</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>748.2543650315617</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
-        <v>1126.355170685363</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.871824506507</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>1874.87612954282</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2230.218651003075</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2560.986726597623</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2560.986726597623</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2426.374760706703</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2232.608979049431</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2004.522806046712</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
-        <v>1769.370697814969</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1515.133341086767</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1307.281840881235</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1099.521542116281</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>306.2047289057822</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C13" t="n">
-        <v>306.2047289057822</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>306.2047289057822</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>158.2916353233891</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>158.2916353233891</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>158.2916353233891</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>158.2916353233891</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>82.88339090485941</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>260.2782098866545</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>542.8089378877605</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>851.0870999282812</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1157.469712732903</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1424.447349606354</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
-        <v>1629.372157534689</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1687.816392302166</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1687.816392302166</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1492.060663628367</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1360.214571333968</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U13" t="n">
-        <v>1071.09896629216</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V13" t="n">
-        <v>816.414478086273</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W13" t="n">
-        <v>526.9973080493123</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X13" t="n">
-        <v>526.9973080493123</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y13" t="n">
-        <v>306.2047289057822</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1546.944160717209</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>1177.981643776797</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1177.981643776797</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>792.1933911785532</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>381.2074863889456</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>199.5143021373487</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>468.4264940665498</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>838.9376088552594</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>1282.872051350723</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>1738.603625623768</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>2155.602766936376</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P14" t="n">
-        <v>2477.000885571628</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q14" t="n">
-        <v>2670.18474111696</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018222</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018222</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>2323.683332757143</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>1933.544000781331</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3062050962127</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8531758150857</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9187661538344</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>448.681311148379</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>302.146753175264</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>165.5050957234327</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>72.31292442990731</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>246.6565409677914</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>537.8115956207098</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>845.2309936650815</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
-        <v>1223.331799318883</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1625.848453140027</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>1971.85275817634</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2230.218651003075</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2560.986726597623</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2560.986726597623</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2426.374760706703</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2232.608979049431</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2004.522806046712</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
-        <v>1769.370697814969</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1515.133341086767</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1307.281840881235</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1099.521542116281</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1057.385797430379</v>
+        <v>491.7343098287685</v>
       </c>
       <c r="C16" t="n">
-        <v>888.4496145024718</v>
+        <v>322.7981269008616</v>
       </c>
       <c r="D16" t="n">
-        <v>738.3329750901361</v>
+        <v>172.6814874885258</v>
       </c>
       <c r="E16" t="n">
-        <v>590.419881507743</v>
+        <v>172.6814874885258</v>
       </c>
       <c r="F16" t="n">
-        <v>443.5299340098326</v>
+        <v>172.6814874885258</v>
       </c>
       <c r="G16" t="n">
-        <v>275.5935643146148</v>
+        <v>172.6814874885258</v>
       </c>
       <c r="H16" t="n">
-        <v>158.2916353233891</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>82.88339090485941</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>260.2782098866545</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>542.8089378877605</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>851.0870999282812</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1157.469712732903</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1424.447349606354</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
-        <v>1629.372157534689</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1687.816392302166</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1687.816392302166</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1687.816392302166</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1687.816392302166</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U16" t="n">
-        <v>1687.816392302166</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V16" t="n">
-        <v>1687.816392302166</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W16" t="n">
-        <v>1687.816392302166</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X16" t="n">
-        <v>1459.826841404148</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y16" t="n">
-        <v>1239.034262260618</v>
+        <v>673.3827746590082</v>
       </c>
     </row>
     <row r="17">
@@ -5491,55 +5491,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1650.184003770974</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2183.715908442899</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>2730.494725501681</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
-        <v>3610.459375831136</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P17" t="n">
-        <v>4323.814463278081</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
         <v>4667.761053946815</v>
@@ -5551,16 +5551,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390118</v>
@@ -5627,7 +5627,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>715.1755123426802</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>715.1755123426802</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>565.0588729303445</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>417.1457793479514</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>270.255831850041</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>270.255831850041</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>124.0386450678988</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>1163.957642384228</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W19" t="n">
-        <v>1163.957642384228</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X19" t="n">
-        <v>935.9680914862104</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y19" t="n">
-        <v>715.1755123426802</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L20" t="n">
-        <v>1963.91817329694</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M20" t="n">
-        <v>2497.450077968865</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N20" t="n">
-        <v>3044.228895027647</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O20" t="n">
-        <v>3547.201365906984</v>
+        <v>3697.97444730184</v>
       </c>
       <c r="P20" t="n">
-        <v>4260.55645335393</v>
+        <v>4411.329534748787</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5864,7 +5864,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2917.269290763411</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="C22" t="n">
-        <v>2917.269290763411</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="D22" t="n">
-        <v>2917.269290763411</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="E22" t="n">
-        <v>2917.269290763411</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="F22" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>4688.221265177248</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>4496.535381004074</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>4274.7687655736</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>3985.665898699243</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>3730.981410493357</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>3441.564240456396</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X22" t="n">
-        <v>3213.574689558379</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y22" t="n">
-        <v>2992.782110414849</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L23" t="n">
-        <v>1898.858917622687</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M23" t="n">
-        <v>2432.390822294612</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N23" t="n">
-        <v>2979.169639353394</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>3697.97444730184</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6101,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3603.519469305086</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>3434.583286377179</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>3284.466646964843</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>3136.55355338245</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>2989.66360588454</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>4778.05172241972</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>4778.05172241972</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>4778.05172241972</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>4523.367234213833</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>4233.950064176873</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X25" t="n">
-        <v>4005.960513278856</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y25" t="n">
-        <v>3785.167934135326</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="26">
@@ -6208,43 +6208,43 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>351.3014367967911</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>685.1208104866375</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1549.639626139992</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2528.189928969821</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232731</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679677</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q26" t="n">
         <v>4653.975400188665</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1120.662598458018</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="C28" t="n">
-        <v>951.7264155301116</v>
+        <v>245.6776738607301</v>
       </c>
       <c r="D28" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839441</v>
@@ -6414,22 +6414,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U28" t="n">
-        <v>1667.240599230347</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V28" t="n">
-        <v>1667.240599230347</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W28" t="n">
-        <v>1667.240599230347</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X28" t="n">
-        <v>1439.25104833233</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y28" t="n">
-        <v>1218.4584691888</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
@@ -6481,34 +6481,34 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6518,58 +6518,58 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1120.662598458018</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C31" t="n">
-        <v>951.7264155301116</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D31" t="n">
-        <v>801.6097761177758</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E31" t="n">
-        <v>653.6966825353827</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6648,25 +6648,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1956.343466104704</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1701.658977898817</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W31" t="n">
-        <v>1412.241807861856</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X31" t="n">
-        <v>1412.241807861856</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y31" t="n">
-        <v>1302.311063288258</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>284.44016540742</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972665</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
         <v>1482.778354750621</v>
@@ -6712,7 +6712,7 @@
         <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807097</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
         <v>4075.973927750058</v>
@@ -6724,28 +6724,28 @@
         <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6755,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
@@ -6800,7 +6800,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6809,22 +6809,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3182.297804570348</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C34" t="n">
-        <v>3182.297804570348</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D34" t="n">
-        <v>3182.297804570348</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E34" t="n">
-        <v>3182.297804570348</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>3182.297804570348</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>4496.535381004075</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>4274.768765573601</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>3985.665898699244</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>3730.981410493358</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>3441.564240456397</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>3213.57468955838</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>3182.297804570348</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6916,19 +6916,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6937,22 +6937,22 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
         <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1971.087962216428</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2504.619866888352</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3051.398683947134</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3554.371154826472</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P35" t="n">
         <v>4195.497197679677</v>
@@ -6970,19 +6970,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>2980.089005086361</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>2525.382582446538</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H36" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I36" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3730.981410493357</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C37" t="n">
-        <v>3730.981410493357</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D37" t="n">
-        <v>3623.318032432792</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E37" t="n">
-        <v>3475.404938850399</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F37" t="n">
-        <v>3328.514991352489</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
-        <v>3160.812154727208</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>4496.535381004074</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>4274.7687655736</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U37" t="n">
-        <v>3985.665898699243</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V37" t="n">
-        <v>3730.981410493357</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="W37" t="n">
-        <v>3730.981410493357</v>
+        <v>1507.550329366009</v>
       </c>
       <c r="X37" t="n">
-        <v>3730.981410493357</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="Y37" t="n">
-        <v>3730.981410493357</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7171,7 +7171,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
         <v>284.4401654074198</v>
@@ -7189,22 +7189,22 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107236</v>
+        <v>4338.827767043611</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
         <v>4208.252829604874</v>
@@ -7229,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
         <v>189.238303939012</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
@@ -7274,7 +7274,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7283,22 +7283,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3213.574689558379</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="C40" t="n">
-        <v>3213.574689558379</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D40" t="n">
-        <v>3213.574689558379</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E40" t="n">
-        <v>3213.574689558379</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F40" t="n">
-        <v>3084.972127388692</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G40" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>4496.535381004074</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>4274.7687655736</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U40" t="n">
-        <v>3985.665898699243</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V40" t="n">
-        <v>3730.981410493357</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W40" t="n">
-        <v>3441.564240456396</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X40" t="n">
-        <v>3213.574689558379</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="Y40" t="n">
-        <v>3213.574689558379</v>
+        <v>889.8320163965544</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
         <v>2005.253839749764</v>
@@ -7396,7 +7396,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
         <v>850.213983755162</v>
@@ -7447,16 +7447,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7466,34 +7466,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
         <v>794.2006632320242</v>
@@ -7508,16 +7508,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>270.9417306852383</v>
+        <v>727.0030950818858</v>
       </c>
       <c r="C43" t="n">
-        <v>270.9417306852383</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="D43" t="n">
-        <v>270.9417306852383</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E43" t="n">
-        <v>242.4509819463048</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G43" t="n">
         <v>95.56103444839441</v>
@@ -7599,22 +7599,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1734.57685067423</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U43" t="n">
-        <v>1445.473983799873</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V43" t="n">
-        <v>1190.789495593986</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W43" t="n">
-        <v>901.3723255570255</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X43" t="n">
-        <v>673.3827746590082</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y43" t="n">
-        <v>452.5901955154781</v>
+        <v>895.1493900894825</v>
       </c>
     </row>
     <row r="44">
@@ -7636,49 +7636,49 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>284.44016540742</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972665</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807097</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
         <v>4208.252829604873</v>
@@ -7703,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320238</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7748,7 +7748,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7757,7 +7757,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
         <v>2043.809373447819</v>
@@ -7766,13 +7766,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>781.8112129900694</v>
+        <v>491.7343098287685</v>
       </c>
       <c r="C46" t="n">
-        <v>612.8750300621625</v>
+        <v>491.7343098287685</v>
       </c>
       <c r="D46" t="n">
-        <v>558.0669121539789</v>
+        <v>491.7343098287685</v>
       </c>
       <c r="E46" t="n">
         <v>410.1538185715858</v>
@@ -7797,28 +7797,28 @@
         <v>263.2638710736754</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
         <v>1646.12566951853</v>
@@ -7836,22 +7836,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U46" t="n">
-        <v>1956.343466104704</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V46" t="n">
-        <v>1701.658977898817</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W46" t="n">
-        <v>1412.241807861857</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X46" t="n">
-        <v>1184.252256963839</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y46" t="n">
-        <v>963.4596778203091</v>
+        <v>673.3827746590082</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.658803395178</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,16 +8692,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>67.53663776704252</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>97.95619053890886</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>17.26494649393206</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8941,16 +8941,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>29.61882225792094</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>97.95619053890903</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>17.26494649393206</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9172,22 +9172,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>67.53663776704263</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>148.4180109385398</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9403,16 +9403,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>410.4190035206657</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9421,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>60.01894884691936</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9640,22 +9640,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>344.7025836476828</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>103.7862464855144</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>67.53663776704161</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10126,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400255</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400235</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10591,7 +10591,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,10 +10600,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P35" t="n">
-        <v>248.840077268714</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10837,16 +10837,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>67.53663776704306</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400235</v>
+        <v>219.3344627260153</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22549,22 +22549,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>295.2115187773525</v>
+        <v>232.2011104940579</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22716,7 +22716,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -22725,10 +22725,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,16 +22749,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>136.1454511924343</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -22767,13 +22767,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>198.3387865078519</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22801,10 +22801,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>210.7328829904779</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>105.3986156958885</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22846,13 +22846,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22950,22 +22950,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>82.85718120047534</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,7 +22986,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -22995,13 +22995,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168073</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>129.2226540149254</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>270.006340444524</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23199,10 +23199,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>96.56727500692696</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,16 +23226,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>69.58249272688994</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23244,7 +23244,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>87.44528183063954</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>299.8862654257798</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>61.44749355031655</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>120.9327970537822</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>206.1742023667267</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0364052149085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.2570059982656</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>146.8105729959039</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>99.32764374521085</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>90.00916279054579</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>87.44528183063954</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>299.8862654257798</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>61.44749355031655</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>120.9327970537822</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>206.1742023667267</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0364052149085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>30.68166329459039</v>
+        <v>68.40576640459068</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>99.32764374521085</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>193.7981713870603</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>220.5367941620016</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2244489913895</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>68.1595858965288</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.0742887270138</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>70.6633565680072</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>94.35543628911073</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24414,13 +24414,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>83.01406815846347</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>142.2354048423647</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,16 +24654,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>130.3466769161725</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>109.7532162242327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>187.6205372139429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>42.02872873825365</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>61.76674224145208</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>18.10451147494139</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>207.1597472832284</v>
       </c>
     </row>
     <row r="41">
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>13.36714812441659</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>118.2281213950249</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25839,7 +25839,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>94.3554362891106</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>65.66927630195836</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>761571.3517504171</v>
+        <v>761571.351750417</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>771381.7646861494</v>
+        <v>993677.0719405208</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>771381.7646861495</v>
+        <v>993677.0719405208</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>993677.0719405209</v>
+        <v>993677.0719405208</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>993677.0719405209</v>
+        <v>993677.0719405208</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>993677.0719405208</v>
+        <v>993677.0719405209</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>993677.0719405209</v>
+        <v>993677.0719405208</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>993677.0719405208</v>
+        <v>993677.0719405209</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>993677.0719405209</v>
+        <v>993677.0719405208</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>303610.2405165455</v>
+        <v>303610.2405165454</v>
       </c>
       <c r="C2" t="n">
         <v>303610.2405165453</v>
       </c>
       <c r="D2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165455</v>
       </c>
       <c r="E2" t="n">
-        <v>327765.7989333927</v>
+        <v>416935.8762313324</v>
       </c>
       <c r="F2" t="n">
-        <v>327765.7989333929</v>
+        <v>416935.8762313323</v>
       </c>
       <c r="G2" t="n">
-        <v>416935.8762313324</v>
+        <v>416935.8762313325</v>
       </c>
       <c r="H2" t="n">
         <v>416935.8762313324</v>
       </c>
       <c r="I2" t="n">
-        <v>416935.8762313323</v>
+        <v>416935.8762313324</v>
       </c>
       <c r="J2" t="n">
         <v>416935.8762313323</v>
       </c>
       <c r="K2" t="n">
+        <v>416935.8762313325</v>
+      </c>
+      <c r="L2" t="n">
         <v>416935.8762313324</v>
-      </c>
-      <c r="L2" t="n">
-        <v>416935.8762313323</v>
       </c>
       <c r="M2" t="n">
         <v>416935.8762313323</v>
       </c>
       <c r="N2" t="n">
+        <v>416935.8762313324</v>
+      </c>
+      <c r="O2" t="n">
         <v>416935.8762313325</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>416935.8762313324</v>
-      </c>
-      <c r="P2" t="n">
-        <v>416935.8762313323</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>469045.4557502363</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>242267.3897762175</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,25 +26389,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>125192.8247873505</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,40 +26426,40 @@
         <v>53660.56571087037</v>
       </c>
       <c r="E4" t="n">
-        <v>7134.159330842211</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="F4" t="n">
-        <v>7134.159330842213</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="G4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="H4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="I4" t="n">
         <v>21619.60799709187</v>
-      </c>
-      <c r="I4" t="n">
-        <v>21619.60799709186</v>
       </c>
       <c r="J4" t="n">
         <v>21619.60799709186</v>
       </c>
       <c r="K4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="L4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="M4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="N4" t="n">
         <v>21619.60799709188</v>
-      </c>
-      <c r="L4" t="n">
-        <v>21619.60799709185</v>
-      </c>
-      <c r="M4" t="n">
-        <v>21619.60799709185</v>
-      </c>
-      <c r="N4" t="n">
-        <v>21619.60799709187</v>
       </c>
       <c r="O4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709185</v>
+        <v>21619.60799709187</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>61958.82776879413</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>61958.82776879413</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-422877.2824722789</v>
+        <v>-428945.6962180982</v>
       </c>
       <c r="C6" t="n">
-        <v>167090.5967422655</v>
+        <v>161022.1829964462</v>
       </c>
       <c r="D6" t="n">
-        <v>167090.5967422656</v>
+        <v>161022.1829964464</v>
       </c>
       <c r="E6" t="n">
-        <v>-210372.64391648</v>
+        <v>-429116.6189151378</v>
       </c>
       <c r="F6" t="n">
-        <v>258672.8118337565</v>
+        <v>298260.7950782688</v>
       </c>
       <c r="G6" t="n">
-        <v>56665.36020430946</v>
+        <v>298260.795078269</v>
       </c>
       <c r="H6" t="n">
-        <v>298932.7499805269</v>
+        <v>298260.7950782689</v>
       </c>
       <c r="I6" t="n">
-        <v>298932.7499805269</v>
+        <v>298260.7950782689</v>
       </c>
       <c r="J6" t="n">
-        <v>122509.5307879339</v>
+        <v>121837.5758856759</v>
       </c>
       <c r="K6" t="n">
-        <v>298932.7499805269</v>
+        <v>298260.795078269</v>
       </c>
       <c r="L6" t="n">
-        <v>298932.7499805266</v>
+        <v>298260.795078269</v>
       </c>
       <c r="M6" t="n">
-        <v>298932.7499805267</v>
+        <v>168618.4802393241</v>
       </c>
       <c r="N6" t="n">
-        <v>298932.7499805272</v>
+        <v>298260.7950782689</v>
       </c>
       <c r="O6" t="n">
-        <v>173739.9251931765</v>
+        <v>298260.795078269</v>
       </c>
       <c r="P6" t="n">
-        <v>298932.7499805266</v>
+        <v>298260.7950782689</v>
       </c>
     </row>
   </sheetData>
@@ -26740,16 +26740,16 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>961.5670451980344</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>961.5670451980344</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26767,10 +26767,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
         <v>1089.776700593298</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545557</v>
@@ -26798,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545556</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="G4" t="n">
         <v>1194.51293060493</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>583.8233809809477</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128.2096553952639</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>520.2256578503744</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>520.2256578503744</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>520.2256578503744</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31284,7 +31284,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31293,34 +31293,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,40 +31357,40 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
@@ -31399,7 +31399,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.865596161600136</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>39.5885366899874</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>149.0283960200894</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>328.0876422206098</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>491.7183277411436</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>610.0200662717139</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>678.7648620105703</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>689.7479871047167</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>651.3094652728054</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>555.8775600333018</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>417.4408974959969</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>242.8222548861147</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>88.08727253246317</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>16.9216471974046</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3092476929280107</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.068276285897659</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>19.97519465590634</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>71.21038966796765</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>195.4067520812345</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>333.9812632363777</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>449.0790242691386</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>524.0540396329287</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>537.9241906905495</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>492.0955424609224</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>394.9500567342644</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>264.0136536173924</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>128.4145574700319</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>38.41732487182711</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>8.336604854122578</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1360708082827408</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.733973360193177</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>15.41659951153571</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>52.14530795926391</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>122.5919165656576</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>201.4561776660799</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>257.7945484781747</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>271.8082059073722</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>265.3452142921069</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>245.0892527662138</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>209.7161962182728</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>145.1966238249032</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>77.96574763195864</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>30.21842664991199</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>7.408795266279935</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0945803651014461</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.865596161600136</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>39.5885366899874</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>149.0283960200894</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>328.0876422206098</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>491.7183277411436</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>610.0200662717139</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>678.7648620105703</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>689.7479871047167</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>651.3094652728054</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>555.8775600333018</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>417.4408974959969</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>242.8222548861147</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>88.08727253246317</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>16.9216471974046</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3092476929280107</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.068276285897659</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>19.97519465590634</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>71.21038966796765</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>195.4067520812345</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>333.9812632363777</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>449.0790242691386</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>524.0540396329287</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>537.9241906905495</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>492.0955424609224</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>394.9500567342644</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>264.0136536173924</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>128.4145574700319</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>38.41732487182711</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>8.336604854122578</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1360708082827408</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.733973360193177</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>15.41659951153571</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>52.14530795926391</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>122.5919165656576</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>201.4561776660799</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>257.7945484781747</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>271.8082059073722</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>265.3452142921069</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>245.0892527662138</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>209.7161962182728</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>145.1966238249032</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>77.96574763195864</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>30.21842664991199</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>7.408795266279935</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0945803651014461</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
         <v>44.86703772844668</v>
@@ -33420,40 +33420,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33572,43 +33572,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
         <v>0.1071911508780295</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33657,40 +33657,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33809,43 +33809,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34783,7 +34783,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34941,22 +34941,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>147.0417376939235</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>271.6284766961631</v>
+        <v>404.727924322443</v>
       </c>
       <c r="L11" t="n">
-        <v>374.2536513017266</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>448.4186287832975</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>460.3349235081258</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>421.2112538511186</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>324.6445642780323</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>195.1352076215474</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>27.23671707198258</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.6601607549767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>196.1398242620187</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>310.5246444892645</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>381.9200057109104</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>406.5824786072162</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>349.499298016478</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>358.931839858843</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>334.10916726722</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>29.23273644898481</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>179.1866858401971</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>285.3845737384909</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>311.3920828692128</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>309.4773866713355</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>269.6743806802535</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>206.9947554831663</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>59.0345805732088</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>147.0417376939235</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>271.6284766961631</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>374.2536513017266</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>448.4186287832975</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>460.3349235081258</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>421.2112538511186</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>324.6445642780323</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>195.1352076215474</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>27.23671707198258</v>
+        <v>89.23202080014572</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>194.6601607549767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>294.0960148009277</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>310.5246444892645</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>381.9200057109104</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>406.5824786072162</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>349.499298016478</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>260.9756493199342</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>334.10916726722</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>29.23273644898481</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>179.1866858401971</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>285.3845737384909</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>311.3920828692128</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>309.4773866713355</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>269.6743806802535</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>206.9947554831663</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>59.0345805732088</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554005</v>
@@ -35892,22 +35892,22 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>575.5896386552618</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>399.2123157422593</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36123,16 +36123,16 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>866.0091179129979</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
         <v>508.0530008882191</v>
@@ -36141,7 +36141,7 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>310.8132536506388</v>
       </c>
       <c r="R20" t="n">
         <v>59.61319854222478</v>
@@ -36360,22 +36360,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>800.292698040015</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>502.5482327048862</v>
       </c>
       <c r="Q23" t="n">
         <v>463.1092954636242</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>258.3236387357542</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36846,7 +36846,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282446</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427827</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230594</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282428</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P32" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M34" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N34" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427827</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882193</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P35" t="n">
-        <v>647.6020634880859</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37557,16 +37557,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>318.3309425707625</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427827</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230594</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248957</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282428</v>
+        <v>727.3874636142344</v>
       </c>
       <c r="P44" t="n">
-        <v>398.761986219372</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>956454.4025782957</v>
+        <v>978120.5831006519</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836236</v>
+        <v>7128448.701475534</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2626870.006455272</v>
+        <v>3476108.837864223</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10820131.0520543</v>
+        <v>10432492.37306825</v>
       </c>
     </row>
     <row r="11">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>91.72166227029922</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>294.5359179420007</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -746,7 +746,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>27.37086888118522</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>46.53270054897273</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>259.8218710709062</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>27.38490508150289</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>99.72476023394501</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>49.45256041645978</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>155.4526127311943</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>273.0927101677626</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873208</v>
+        <v>299.8862654257798</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>120.9327970537822</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>206.1742023667267</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>135.275240877313</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>92.26024958059011</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.18624318344743</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>133.2658462320107</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>191.828123840699</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8053112726921</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>203.4068132192029</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>152.3012747544525</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>411.4371413535349</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>268.5276091084213</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>120.9327970537822</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>135.275240877313</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>92.26024958059013</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.18624318344743</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>133.2658462320107</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>191.828123840699</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8053112726921</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1773,16 +1773,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>85.17631597961559</v>
       </c>
       <c r="H16" t="n">
-        <v>76.3492485097301</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>53.8270442769162</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>74.75769145492404</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2298,16 +2298,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>244.9312013122791</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>56.9728505726339</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>25.01141625626312</v>
+        <v>7.601081015447265</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>18.26879610203984</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>193.0697012992159</v>
       </c>
     </row>
     <row r="32">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>94.29644372182817</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>270.0697021486465</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>147.7156938517122</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3480,13 +3480,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>224.7562560951389</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3717,19 +3717,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>224.7562560951389</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>11.4249060688664</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>166.4648320575207</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>224.7562560951389</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4137,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>80.76468634461081</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>260.6968861527341</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>975.540838419158</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C2" t="n">
-        <v>975.540838419158</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D2" t="n">
-        <v>975.540838419158</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>975.540838419158</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>564.5549336295505</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>146.5911255277374</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533142</v>
@@ -4336,46 +4336,46 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990286</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990286</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2478.514423990286</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>2125.745768720171</v>
+        <v>2013.546485980902</v>
       </c>
       <c r="X2" t="n">
-        <v>1752.280010459091</v>
+        <v>2013.546485980902</v>
       </c>
       <c r="Y2" t="n">
-        <v>1362.14067848328</v>
+        <v>2013.546485980902</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
         <v>505.8730812692495</v>
@@ -4406,7 +4406,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4415,37 +4415,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.2718927217162</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2718927217162</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694738</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="X4" t="n">
-        <v>411.0644718652463</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.2718927217162</v>
+        <v>184.2708856551153</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1315.683675137275</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C5" t="n">
-        <v>1315.683675137275</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D5" t="n">
-        <v>1315.683675137275</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>929.8954225390303</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>518.9095177494228</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>100.9457096476096</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>100.9457096476096</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520779</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520779</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>2092.422847177208</v>
+        <v>2004.763483555427</v>
       </c>
       <c r="W5" t="n">
-        <v>2092.422847177208</v>
+        <v>2004.763483555427</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.422847177208</v>
+        <v>1631.297725294347</v>
       </c>
       <c r="Y5" t="n">
-        <v>1702.283515201396</v>
+        <v>1241.158393318536</v>
       </c>
     </row>
     <row r="6">
@@ -4622,73 +4622,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036446</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036446</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1208.982837814967</v>
+        <v>1672.817798126042</v>
       </c>
       <c r="C8" t="n">
-        <v>1208.982837814967</v>
+        <v>1303.85528118563</v>
       </c>
       <c r="D8" t="n">
-        <v>850.7171392082162</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="E8" t="n">
-        <v>464.928886609972</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2669.487570733876</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2669.487570733876</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2669.487570733876</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2415.725785371968</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2415.725785371968</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>2062.957130101853</v>
       </c>
       <c r="X8" t="n">
-        <v>1208.982837814967</v>
+        <v>2062.957130101853</v>
       </c>
       <c r="Y8" t="n">
-        <v>1208.982837814967</v>
+        <v>1672.817798126042</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>103.8950630491117</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>103.8950630491117</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>103.8950630491117</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>571.1061430638139</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>281.9325327183818</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V10" t="n">
-        <v>281.9325327183818</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>272.8312459770186</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>1018.497876432288</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>1018.497876432288</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>742.6466540406084</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>356.8584014423642</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>356.8584014423642</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001589</v>
+        <v>356.8584014423642</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>199.5143021373487</v>
       </c>
       <c r="K11" t="n">
-        <v>685.1208104866384</v>
+        <v>468.4264940665502</v>
       </c>
       <c r="L11" t="n">
-        <v>1549.639626139993</v>
+        <v>838.9376088552593</v>
       </c>
       <c r="M11" t="n">
-        <v>2528.189928969822</v>
+        <v>1282.872051350724</v>
       </c>
       <c r="N11" t="n">
-        <v>3507.942201196468</v>
+        <v>1738.603625623768</v>
       </c>
       <c r="O11" t="n">
-        <v>4010.914672075805</v>
+        <v>2155.602766936376</v>
       </c>
       <c r="P11" t="n">
-        <v>4405.689038432984</v>
+        <v>2477.000885571628</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>2670.18474111696</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>2574.994750559857</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>2366.737980492456</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>2113.16585401275</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>1782.102966669179</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>1782.102966669179</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>1408.637208408099</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>1018.497876432288</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973196</v>
+        <v>931.3062050962127</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161926</v>
+        <v>756.8531758150857</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549414</v>
+        <v>607.9187661538344</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>448.681311148379</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>302.146753175264</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>165.5050957234327</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>72.31292442990731</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>246.6565409677914</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>440.8349669871899</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>845.2309936650815</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1223.331799318883</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1625.848453140027</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>1971.85275817634</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2230.218651003075</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2426.374760706703</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2232.608979049431</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2004.522806046712</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1769.370697814969</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1515.133341086767</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1307.281840881235</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1099.521542116281</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839442</v>
+        <v>835.7352149361283</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839442</v>
+        <v>666.7990320082214</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839442</v>
+        <v>516.6823925958856</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839442</v>
+        <v>368.7692990134926</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>221.8793515155822</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>140.68366689533</v>
+        <v>82.88339090485941</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>260.2782098866545</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>542.8089378877605</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>851.0870999282812</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598116</v>
+        <v>1157.469712732903</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1424.447349606354</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952189</v>
+        <v>1629.372157534689</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1687.816392302166</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1687.816392302166</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1687.816392302166</v>
       </c>
       <c r="T13" t="n">
-        <v>1559.196154437386</v>
+        <v>1465.051953754689</v>
       </c>
       <c r="U13" t="n">
-        <v>1270.093287563029</v>
+        <v>1465.051953754689</v>
       </c>
       <c r="V13" t="n">
-        <v>1015.408799357142</v>
+        <v>1210.367465548802</v>
       </c>
       <c r="W13" t="n">
-        <v>725.9916293201816</v>
+        <v>1056.527794079658</v>
       </c>
       <c r="X13" t="n">
-        <v>498.0020784221642</v>
+        <v>1056.527794079658</v>
       </c>
       <c r="Y13" t="n">
-        <v>277.2094992786341</v>
+        <v>835.7352149361283</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>1853.792531240474</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>1484.830014300062</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1126.564315693312</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>740.7760630950677</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>740.7760630950677</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>325.18299102079</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>199.5143021373485</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>468.4264940665499</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>838.9376088552592</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>1282.872051350724</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>1738.603625623768</v>
       </c>
       <c r="O14" t="n">
-        <v>3517.878731871643</v>
+        <v>2155.602766936376</v>
       </c>
       <c r="P14" t="n">
-        <v>4231.233819318589</v>
+        <v>2477.000885571628</v>
       </c>
       <c r="Q14" t="n">
-        <v>4689.712021827577</v>
+        <v>2670.18474111696</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>2574.994750559857</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>2574.994750559857</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>2574.994750559857</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>2243.931863216286</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>2243.931863216286</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>2243.931863216286</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>1853.792531240474</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>931.3062050962127</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>756.8531758150857</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>607.9187661538344</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>448.681311148379</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>302.146753175264</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>165.5050957234327</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>72.31292442990731</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>246.6565409677914</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>537.8115956207102</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>845.230993665082</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.47698845434</v>
+        <v>1223.331799318883</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1625.848453140027</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>1971.85275817634</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2230.218651003075</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2426.374760706703</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2232.608979049431</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2004.522806046712</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1769.370697814969</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1515.133341086767</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1307.281840881235</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1099.521542116281</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>491.7343098287685</v>
+        <v>606.9455805506927</v>
       </c>
       <c r="C16" t="n">
-        <v>322.7981269008616</v>
+        <v>438.0093976227859</v>
       </c>
       <c r="D16" t="n">
-        <v>172.6814874885258</v>
+        <v>287.8927582104501</v>
       </c>
       <c r="E16" t="n">
-        <v>172.6814874885258</v>
+        <v>139.979664628057</v>
       </c>
       <c r="F16" t="n">
-        <v>172.6814874885258</v>
+        <v>139.979664628057</v>
       </c>
       <c r="G16" t="n">
-        <v>172.6814874885258</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>82.8833909048594</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>260.2782098866545</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>542.8089378877603</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>851.0870999282808</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598116</v>
+        <v>1157.469712732903</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1424.447349606354</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952189</v>
+        <v>1629.372157534689</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104704</v>
+        <v>1492.060663628367</v>
       </c>
       <c r="T16" t="n">
-        <v>1734.57685067423</v>
+        <v>1492.060663628367</v>
       </c>
       <c r="U16" t="n">
-        <v>1445.473983799873</v>
+        <v>1492.060663628367</v>
       </c>
       <c r="V16" t="n">
-        <v>1190.789495593986</v>
+        <v>1237.37617542248</v>
       </c>
       <c r="W16" t="n">
-        <v>901.3723255570255</v>
+        <v>1237.37617542248</v>
       </c>
       <c r="X16" t="n">
-        <v>673.3827746590082</v>
+        <v>1009.386624524463</v>
       </c>
       <c r="Y16" t="n">
-        <v>673.3827746590082</v>
+        <v>788.5940453809325</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5500,7 +5500,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
         <v>850.213983755162</v>
@@ -5512,7 +5512,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
         <v>284.4401654074198</v>
@@ -5530,16 +5530,16 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
-        <v>4010.914672075805</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P17" t="n">
-        <v>4405.689038432984</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
         <v>4667.761053946815</v>
@@ -5551,16 +5551,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390118</v>
@@ -5627,7 +5627,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>300.048425655595</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>300.048425655595</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>149.9317862432593</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>149.9317862432593</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5718,7 +5718,7 @@
         <v>481.6968904858347</v>
       </c>
       <c r="Y19" t="n">
-        <v>260.9043113423046</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1236.699401366028</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2215.249704195857</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>3195.001976422504</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>3697.97444730184</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4411.329534748787</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
         <v>4719.034655862919</v>
@@ -5779,25 +5779,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>171.0738540998329</v>
+        <v>727.0030950818858</v>
       </c>
       <c r="C22" t="n">
-        <v>171.0738540998329</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="D22" t="n">
-        <v>171.0738540998329</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E22" t="n">
-        <v>171.0738540998329</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783409</v>
+        <v>1198.068729949086</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413803</v>
+        <v>908.6515599121255</v>
       </c>
       <c r="X22" t="n">
-        <v>391.866433243363</v>
+        <v>908.6515599121255</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.0738540998329</v>
+        <v>908.6515599121255</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1236.699401366028</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M23" t="n">
-        <v>2215.249704195857</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N23" t="n">
-        <v>3195.001976422504</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O23" t="n">
-        <v>3697.97444730184</v>
+        <v>3530.568798281487</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4243.923885728434</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4702.402088237422</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>301.0224619425389</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>301.0224619425389</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>301.0224619425389</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>153.1093683601458</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6177,22 +6177,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208126</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W25" t="n">
-        <v>709.6864413838521</v>
+        <v>931.4530568143261</v>
       </c>
       <c r="X25" t="n">
-        <v>481.6968904858347</v>
+        <v>703.4635059163088</v>
       </c>
       <c r="Y25" t="n">
-        <v>260.9043113423046</v>
+        <v>482.6709267727787</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143013</v>
@@ -6214,40 +6214,40 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G26" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>351.3014367967911</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>685.1208104866375</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1549.639626139992</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2528.189928969821</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>3507.942201196468</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>4010.914672075804</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
         <v>4778.05172241972</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6363,16 +6363,16 @@
         <v>270.9417306852383</v>
       </c>
       <c r="C28" t="n">
-        <v>245.6776738607301</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839441</v>
@@ -6442,7 +6442,7 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
         <v>1646.988141143013</v>
@@ -6451,13 +6451,13 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001583</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839441</v>
@@ -6466,16 +6466,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>3573.001456870721</v>
       </c>
       <c r="O29" t="n">
         <v>4075.973927750058</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6563,7 +6563,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6572,22 +6572,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>260.9043113423046</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C31" t="n">
-        <v>260.9043113423046</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D31" t="n">
-        <v>242.4509819463048</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E31" t="n">
-        <v>242.4509819463048</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839441</v>
@@ -6657,16 +6657,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208126</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838521</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858347</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="Y31" t="n">
-        <v>260.9043113423046</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
         <v>435.1415336001584</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839441</v>
+        <v>657.7758834233819</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839441</v>
+        <v>488.839700495475</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839441</v>
+        <v>338.7230610831392</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839441</v>
+        <v>190.8099675007461</v>
       </c>
       <c r="F34" t="n">
         <v>95.56103444839441</v>
@@ -6891,19 +6891,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1270.093287563029</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V34" t="n">
-        <v>1015.408799357142</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W34" t="n">
-        <v>725.9916293201816</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="X34" t="n">
-        <v>498.0020784221642</v>
+        <v>1060.216927397152</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.2094992786341</v>
+        <v>839.4243482536216</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
@@ -7022,7 +7022,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7034,22 +7034,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>877.1197344942216</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="C37" t="n">
-        <v>708.1835515663147</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="D37" t="n">
         <v>558.0669121539789</v>
@@ -7086,13 +7086,13 @@
         <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7128,19 +7128,19 @@
         <v>1734.57685067423</v>
       </c>
       <c r="U37" t="n">
-        <v>1734.57685067423</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V37" t="n">
-        <v>1734.57685067423</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="W37" t="n">
-        <v>1507.550329366009</v>
+        <v>1156.056813762912</v>
       </c>
       <c r="X37" t="n">
-        <v>1279.560778467991</v>
+        <v>928.0672628648952</v>
       </c>
       <c r="Y37" t="n">
-        <v>1058.768199324461</v>
+        <v>707.274683721365</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
@@ -7189,13 +7189,13 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O38" t="n">
-        <v>3944.053400686433</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4338.827767043611</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7207,19 +7207,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>708.1835515663147</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C40" t="n">
         <v>708.1835515663147</v>
@@ -7365,19 +7365,19 @@
         <v>1734.57685067423</v>
       </c>
       <c r="U40" t="n">
-        <v>1445.473983799873</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V40" t="n">
-        <v>1190.789495593986</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="W40" t="n">
-        <v>901.3723255570255</v>
+        <v>1507.550329366009</v>
       </c>
       <c r="X40" t="n">
-        <v>901.3723255570255</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.8320163965544</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839441</v>
@@ -7414,16 +7414,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807096</v>
+        <v>3348.500285847604</v>
       </c>
       <c r="O41" t="n">
         <v>4075.973927750058</v>
@@ -7447,16 +7447,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>727.0030950818858</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C43" t="n">
-        <v>558.0669121539789</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D43" t="n">
         <v>558.0669121539789</v>
@@ -7599,22 +7599,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U43" t="n">
-        <v>1667.240599230347</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V43" t="n">
-        <v>1412.556111024461</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="W43" t="n">
-        <v>1123.1389409875</v>
+        <v>1507.550329366009</v>
       </c>
       <c r="X43" t="n">
-        <v>895.1493900894825</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="Y43" t="n">
-        <v>895.1493900894825</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="44">
@@ -7627,19 +7627,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7648,28 +7648,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L44" t="n">
-        <v>1236.699401366028</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M44" t="n">
-        <v>2215.249704195857</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N44" t="n">
-        <v>2762.028521254639</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>491.7343098287685</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C46" t="n">
-        <v>491.7343098287685</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D46" t="n">
-        <v>491.7343098287685</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E46" t="n">
         <v>410.1538185715858</v>
@@ -7833,25 +7833,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1445.473983799873</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="V46" t="n">
-        <v>1190.789495593986</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="W46" t="n">
-        <v>901.3723255570255</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="X46" t="n">
-        <v>673.3827746590082</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="Y46" t="n">
-        <v>673.3827746590082</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8692,16 +8692,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>67.53663776704252</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>97.95619053890891</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>17.26494649393206</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8941,16 +8941,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>29.61882225792094</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>97.9561905389096</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>17.26494649393209</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>67.53663776704263</v>
+        <v>67.53663776704173</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9415,13 +9415,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>60.01894884691936</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9655,13 +9655,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>103.7862464855144</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>16.80057335908688</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>67.53663776704161</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10123,10 +10123,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>246.454569480844</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10837,16 +10837,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>67.53663776704306</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11062,10 +11062,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11074,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400246</v>
+        <v>226.7688596193101</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>219.3344627260153</v>
+        <v>258.6211785616921</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22552,10 +22552,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22564,7 +22564,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>232.2011104940579</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>54.70505077541236</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22716,7 +22716,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>16.39642322652793</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -22725,10 +22725,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,7 +22752,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -22761,19 +22761,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>198.3387865078519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22804,7 +22804,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>105.3986156958885</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,25 +22831,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>67.93038739922872</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22965,7 +22965,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,25 +22989,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>96.01048066168073</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>96.92615468724713</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23023,13 +23023,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23038,10 +23038,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>27.09349749330884</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>270.006340444524</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23181,7 +23181,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23190,7 +23190,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>95.96848760647146</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -23199,10 +23199,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>69.58249272688994</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>81.5903314529204</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.4371413535349</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>61.44749355031655</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>146.8105729959039</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>99.32764374521085</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T13" t="n">
-        <v>16.14213605696631</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>134.2217235821385</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>31.35865631735845</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>61.44749355031655</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,19 +23548,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>206.1742023667267</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>81.08069001864999</v>
       </c>
       <c r="H16" t="n">
-        <v>68.40576640459068</v>
+        <v>146.8105729959039</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>99.32764374521086</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>91.59400374601503</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>70.6633565680072</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>7.206442011548944</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>88.44819745029736</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>142.2354048423647</v>
+        <v>159.6457400831806</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>130.3466769161725</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>25.5149520528789</v>
       </c>
     </row>
     <row r="32">
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>51.12460430110308</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25131,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>16.14213605696636</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>32.11628633022508</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>61.76674224145208</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>61.76674224145208</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>207.1597472832284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>13.36714812441659</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25839,22 +25839,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>61.76674224145208</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>65.66927630195836</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>25.51495205287875</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>761571.3517504171</v>
+        <v>761571.351750417</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>761571.351750417</v>
+        <v>761571.3517504169</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>761571.3517504171</v>
+        <v>761571.3517504169</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>993677.0719405208</v>
+        <v>771381.7646861495</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>993677.0719405208</v>
+        <v>771381.7646861495</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>993677.0719405208</v>
+        <v>993677.0719405207</v>
       </c>
     </row>
     <row r="10">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>993677.0719405208</v>
+        <v>993677.0719405209</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>993677.0719405208</v>
+        <v>993677.0719405209</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165453</v>
       </c>
       <c r="C2" t="n">
         <v>303610.2405165453</v>
@@ -26322,13 +26322,13 @@
         <v>303610.2405165455</v>
       </c>
       <c r="E2" t="n">
-        <v>416935.8762313324</v>
+        <v>327765.7989333927</v>
       </c>
       <c r="F2" t="n">
+        <v>327765.7989333927</v>
+      </c>
+      <c r="G2" t="n">
         <v>416935.8762313323</v>
-      </c>
-      <c r="G2" t="n">
-        <v>416935.8762313325</v>
       </c>
       <c r="H2" t="n">
         <v>416935.8762313324</v>
@@ -26337,10 +26337,10 @@
         <v>416935.8762313324</v>
       </c>
       <c r="J2" t="n">
+        <v>416935.8762313324</v>
+      </c>
+      <c r="K2" t="n">
         <v>416935.8762313323</v>
-      </c>
-      <c r="K2" t="n">
-        <v>416935.8762313325</v>
       </c>
       <c r="L2" t="n">
         <v>416935.8762313324</v>
@@ -26352,10 +26352,10 @@
         <v>416935.8762313324</v>
       </c>
       <c r="O2" t="n">
-        <v>416935.8762313325</v>
+        <v>416935.8762313323</v>
       </c>
       <c r="P2" t="n">
-        <v>416935.8762313324</v>
+        <v>416935.8762313322</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>469045.4557502365</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>242267.3897762175</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>125192.8247873504</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,22 +26426,22 @@
         <v>53660.56571087037</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709187</v>
+        <v>7134.159330842212</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709187</v>
+        <v>7134.159330842216</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="H4" t="n">
         <v>21619.60799709188</v>
       </c>
       <c r="I4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="J4" t="n">
         <v>21619.60799709187</v>
-      </c>
-      <c r="J4" t="n">
-        <v>21619.60799709186</v>
       </c>
       <c r="K4" t="n">
         <v>21619.60799709187</v>
@@ -26450,7 +26450,7 @@
         <v>21619.60799709187</v>
       </c>
       <c r="M4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="N4" t="n">
         <v>21619.60799709188</v>
@@ -26459,7 +26459,7 @@
         <v>21619.60799709187</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
     </row>
     <row r="5">
@@ -26469,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>61958.82776879413</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>61958.82776879413</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
@@ -26502,7 +26502,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
         <v>96383.51825371366</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-428945.6962180982</v>
+        <v>-423484.1238468608</v>
       </c>
       <c r="C6" t="n">
-        <v>161022.1829964462</v>
+        <v>166483.7553676836</v>
       </c>
       <c r="D6" t="n">
-        <v>161022.1829964464</v>
+        <v>166483.7553676837</v>
       </c>
       <c r="E6" t="n">
-        <v>-429116.6189151378</v>
+        <v>-210864.4588224104</v>
       </c>
       <c r="F6" t="n">
-        <v>298260.7950782688</v>
+        <v>258180.9969278261</v>
       </c>
       <c r="G6" t="n">
-        <v>298260.795078269</v>
+        <v>56598.16471408346</v>
       </c>
       <c r="H6" t="n">
-        <v>298260.7950782689</v>
+        <v>298865.554490301</v>
       </c>
       <c r="I6" t="n">
-        <v>298260.7950782689</v>
+        <v>298865.5544903012</v>
       </c>
       <c r="J6" t="n">
-        <v>121837.5758856759</v>
+        <v>122442.3352977082</v>
       </c>
       <c r="K6" t="n">
-        <v>298260.795078269</v>
+        <v>298865.5544903009</v>
       </c>
       <c r="L6" t="n">
-        <v>298260.795078269</v>
+        <v>298865.5544903012</v>
       </c>
       <c r="M6" t="n">
-        <v>168618.4802393241</v>
+        <v>298865.5544903009</v>
       </c>
       <c r="N6" t="n">
-        <v>298260.7950782689</v>
+        <v>298865.554490301</v>
       </c>
       <c r="O6" t="n">
-        <v>298260.795078269</v>
+        <v>173672.7297029505</v>
       </c>
       <c r="P6" t="n">
-        <v>298260.7950782689</v>
+        <v>298865.5544903009</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>961.5670451980344</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>961.5670451980343</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1194.51293060493</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>1194.51293060493</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
         <v>1194.51293060493</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>583.8233809809478</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>128.209655395264</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>520.2256578503742</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>3.865596161600136</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>39.5885366899874</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>149.0283960200894</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>328.0876422206098</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>491.7183277411436</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>610.0200662717139</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>678.7648620105703</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>689.7479871047167</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>651.3094652728054</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>555.8775600333018</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>417.4408974959969</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>242.8222548861147</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>88.08727253246317</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>16.9216471974046</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3092476929280107</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.068276285897659</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>19.97519465590634</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>71.21038966796765</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>195.4067520812345</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>333.9812632363777</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>449.0790242691386</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>524.0540396329287</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>537.9241906905495</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>492.0955424609224</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>394.9500567342644</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>264.0136536173924</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>128.4145574700319</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>38.41732487182711</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>8.336604854122578</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1360708082827408</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.733973360193177</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>15.41659951153571</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>52.14530795926391</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>122.5919165656576</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>201.4561776660799</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>257.7945484781747</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>271.8082059073722</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>265.3452142921069</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>245.0892527662138</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>209.7161962182728</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>145.1966238249032</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>77.96574763195864</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>30.21842664991199</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>7.408795266279935</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.0945803651014461</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>3.865596161600135</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>39.58853668998739</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>149.0283960200894</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>328.0876422206098</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>491.7183277411436</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>610.0200662717139</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>678.7648620105701</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>689.7479871047167</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>651.3094652728053</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>555.8775600333018</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>417.4408974959969</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>242.8222548861147</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>88.08727253246316</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>16.9216471974046</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3092476929280107</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.068276285897659</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>19.97519465590634</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>71.21038966796765</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>195.4067520812345</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>333.9812632363776</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>449.0790242691386</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>524.0540396329286</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>537.9241906905494</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>492.0955424609223</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>394.9500567342644</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>264.0136536173924</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>128.4145574700319</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>38.4173248718271</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>8.336604854122577</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1360708082827408</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.733973360193176</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>15.41659951153571</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>52.1453079592639</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>122.5919165656576</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>201.4561776660799</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>257.7945484781746</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>271.8082059073722</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>265.3452142921069</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>245.0892527662138</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>209.7161962182728</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>145.1966238249032</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>77.96574763195862</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>30.21842664991198</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>7.408795266279934</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.0945803651014461</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>147.0417376939235</v>
       </c>
       <c r="K11" t="n">
-        <v>404.727924322443</v>
+        <v>271.6284766961631</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>374.2536513017266</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>448.4186287832975</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>460.3349235081258</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>421.2112538511186</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>324.6445642780323</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>195.1352076215474</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>27.23671707198258</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>194.6601607549767</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>196.1398242620187</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>408.4808350281734</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>381.9200057109104</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>406.5824786072162</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>349.499298016478</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>260.9756493199342</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>334.10916726722</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>29.23273644898481</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>179.1866858401971</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>285.3845737384909</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>311.3920828692128</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>309.4773866713355</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>269.6743806802535</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>206.9947554831663</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>59.0345805732088</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>147.0417376939235</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>271.628476696163</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>374.2536513017266</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>448.4186287832974</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>460.3349235081258</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>421.2112538511185</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>324.6445642780323</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>195.1352076215474</v>
       </c>
       <c r="R14" t="n">
-        <v>89.23202080014572</v>
+        <v>27.23671707198255</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>194.6601607549767</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>294.0960148009282</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>310.5246444892645</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>381.9200057109103</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>406.5824786072161</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>349.4992980164779</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>260.9756493199341</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>334.10916726722</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>29.2327364489848</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>179.186685840197</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>285.3845737384908</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>311.3920828692127</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>309.4773866713355</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>269.6743806802535</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>206.9947554831663</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>59.0345805732088</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35898,7 +35898,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>575.5896386552618</v>
+        <v>575.5896386552608</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
         <v>988.4346493230593</v>
@@ -36135,13 +36135,13 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>310.8132536506388</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
         <v>59.61319854222478</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36375,13 +36375,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>502.5482327048862</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>76.41377190131166</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>258.3236387357542</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
@@ -36609,7 +36609,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36618,7 +36618,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
         <v>873.2513289427826</v>
@@ -36843,10 +36843,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>798.7564048937555</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37557,16 +37557,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>318.3309425707625</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37782,10 +37782,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
         <v>988.4346493230593</v>
@@ -37794,7 +37794,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282437</v>
+        <v>734.8218605075292</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>727.3874636142344</v>
+        <v>766.6741794499112</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
